--- a/sputnik/personal/ee/81ee.xlsx
+++ b/sputnik/personal/ee/81ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -463,10 +463,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -640,26 +640,55 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F7" s="7" t="s">
-        <v>9</v>
+      <c r="A7" s="10">
+        <v>43950</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4">
+        <v>77486</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" ref="D7" si="2">C7-C6</f>
+        <v>557</v>
+      </c>
+      <c r="E7" s="8">
+        <v>4.49</v>
+      </c>
+      <c r="F7" s="6">
+        <f>D7*E7</f>
+        <v>2500.9300000000003</v>
       </c>
       <c r="G7" s="9">
-        <f>SUM(G2:G6)</f>
-        <v>14893.33</v>
+        <f>PRODUCT(D7,E7)</f>
+        <v>2500.9300000000003</v>
       </c>
       <c r="H7" s="9">
-        <f>SUM(H2:H6)</f>
-        <v>14894.59</v>
+        <v>2500.9299999999998</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="9">
+        <f>SUM(G2:G7)</f>
+        <v>17394.260000000002</v>
+      </c>
+      <c r="H8" s="9">
+        <f>SUM(H2:H7)</f>
+        <v>17395.52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9">
-        <f>SUM(H7,-G7)</f>
-        <v>1.2600000000002183</v>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9">
+        <f>SUM(H8,-G8)</f>
+        <v>1.2599999999983993</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/81ee.xlsx
+++ b/sputnik/personal/ee/81ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -463,10 +463,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -669,25 +669,54 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F8" s="7" t="s">
-        <v>9</v>
+      <c r="A8" s="10">
+        <v>43990</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4">
+        <v>77786</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" ref="D8" si="3">C8-C7</f>
+        <v>300</v>
+      </c>
+      <c r="E8" s="8">
+        <v>4.49</v>
+      </c>
+      <c r="F8" s="6">
+        <f>D8*E8</f>
+        <v>1347</v>
       </c>
       <c r="G8" s="9">
-        <f>SUM(G2:G7)</f>
-        <v>17394.260000000002</v>
+        <f>PRODUCT(D8,E8)</f>
+        <v>1347</v>
       </c>
       <c r="H8" s="9">
-        <f>SUM(H2:H7)</f>
-        <v>17395.52</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="9">
+        <f>SUM(G2:G8)</f>
+        <v>18741.260000000002</v>
+      </c>
+      <c r="H9" s="9">
+        <f>SUM(H2:H8)</f>
+        <v>18742.52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9">
-        <f>SUM(H8,-G8)</f>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9">
+        <f>SUM(H9,-G9)</f>
         <v>1.2599999999983993</v>
       </c>
     </row>

--- a/sputnik/personal/ee/81ee.xlsx
+++ b/sputnik/personal/ee/81ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -463,10 +463,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -544,7 +544,7 @@
         <v>4.49</v>
       </c>
       <c r="F3" s="6">
-        <f>D3*E3</f>
+        <f t="shared" ref="F3:F8" si="0">D3*E3</f>
         <v>2496.44</v>
       </c>
       <c r="G3" s="9">
@@ -565,14 +565,14 @@
         <v>74938</v>
       </c>
       <c r="D4" s="4">
-        <f t="shared" ref="D4:D5" si="0">C4-C3</f>
+        <f t="shared" ref="D4:D5" si="1">C4-C3</f>
         <v>770</v>
       </c>
       <c r="E4" s="8">
         <v>4.49</v>
       </c>
       <c r="F4" s="6">
-        <f>D4*E4</f>
+        <f t="shared" si="0"/>
         <v>3457.3</v>
       </c>
       <c r="G4" s="9">
@@ -593,14 +593,14 @@
         <v>75206</v>
       </c>
       <c r="D5" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>268</v>
       </c>
       <c r="E5" s="8">
         <v>4.49</v>
       </c>
       <c r="F5" s="6">
-        <f>D5*E5</f>
+        <f t="shared" si="0"/>
         <v>1203.3200000000002</v>
       </c>
       <c r="G5" s="9">
@@ -621,14 +621,14 @@
         <v>76929</v>
       </c>
       <c r="D6" s="4">
-        <f t="shared" ref="D6" si="1">C6-C5</f>
+        <f t="shared" ref="D6" si="2">C6-C5</f>
         <v>1723</v>
       </c>
       <c r="E6" s="8">
         <v>4.49</v>
       </c>
       <c r="F6" s="6">
-        <f>D6*E6</f>
+        <f t="shared" si="0"/>
         <v>7736.27</v>
       </c>
       <c r="G6" s="9">
@@ -650,14 +650,14 @@
         <v>77486</v>
       </c>
       <c r="D7" s="4">
-        <f t="shared" ref="D7" si="2">C7-C6</f>
+        <f t="shared" ref="D7" si="3">C7-C6</f>
         <v>557</v>
       </c>
       <c r="E7" s="8">
         <v>4.49</v>
       </c>
       <c r="F7" s="6">
-        <f>D7*E7</f>
+        <f t="shared" si="0"/>
         <v>2500.9300000000003</v>
       </c>
       <c r="G7" s="9">
@@ -679,14 +679,14 @@
         <v>77786</v>
       </c>
       <c r="D8" s="4">
-        <f t="shared" ref="D8" si="3">C8-C7</f>
+        <f t="shared" ref="D8" si="4">C8-C7</f>
         <v>300</v>
       </c>
       <c r="E8" s="8">
         <v>4.49</v>
       </c>
       <c r="F8" s="6">
-        <f>D8*E8</f>
+        <f t="shared" si="0"/>
         <v>1347</v>
       </c>
       <c r="G8" s="9">
@@ -698,25 +698,54 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F9" s="7" t="s">
-        <v>9</v>
+      <c r="A9" s="10">
+        <v>44036</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4">
+        <v>78102</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" ref="D9" si="5">C9-C8</f>
+        <v>316</v>
+      </c>
+      <c r="E9" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F9" s="6">
+        <f t="shared" ref="F9" si="6">D9*E9</f>
+        <v>1488.36</v>
       </c>
       <c r="G9" s="9">
-        <f>SUM(G2:G8)</f>
-        <v>18741.260000000002</v>
+        <f>PRODUCT(D9,E9)</f>
+        <v>1488.36</v>
       </c>
       <c r="H9" s="9">
-        <f>SUM(H2:H8)</f>
-        <v>18742.52</v>
+        <v>1488.36</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="9">
+        <f>SUM(G2:G9)</f>
+        <v>20229.620000000003</v>
+      </c>
+      <c r="H10" s="9">
+        <f>SUM(H2:H9)</f>
+        <v>20230.88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9">
-        <f>SUM(H9,-G9)</f>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9">
+        <f>SUM(H10,-G10)</f>
         <v>1.2599999999983993</v>
       </c>
     </row>

--- a/sputnik/personal/ee/81ee.xlsx
+++ b/sputnik/personal/ee/81ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -463,10 +463,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -727,25 +727,54 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F10" s="7" t="s">
-        <v>9</v>
+      <c r="A10" s="10">
+        <v>44069</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4">
+        <v>78402</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" ref="D10" si="7">C10-C9</f>
+        <v>300</v>
+      </c>
+      <c r="E10" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F10" s="6">
+        <f t="shared" ref="F10" si="8">D10*E10</f>
+        <v>1413</v>
       </c>
       <c r="G10" s="9">
-        <f>SUM(G2:G9)</f>
-        <v>20229.620000000003</v>
+        <f>PRODUCT(D10,E10)</f>
+        <v>1413</v>
       </c>
       <c r="H10" s="9">
-        <f>SUM(H2:H9)</f>
-        <v>20230.88</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="9">
+        <f>SUM(G2:G10)</f>
+        <v>21642.620000000003</v>
+      </c>
+      <c r="H11" s="9">
+        <f>SUM(H2:H10)</f>
+        <v>21643.88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9">
-        <f>SUM(H10,-G10)</f>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9">
+        <f>SUM(H11,-G11)</f>
         <v>1.2599999999983993</v>
       </c>
     </row>

--- a/sputnik/personal/ee/81ee.xlsx
+++ b/sputnik/personal/ee/81ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -463,10 +463,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -756,25 +756,54 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F11" s="7" t="s">
+      <c r="A11" s="10">
+        <v>44099</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4">
+        <v>78614</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" ref="D11" si="9">C11-C10</f>
+        <v>212</v>
+      </c>
+      <c r="E11" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F11" s="6">
+        <f t="shared" ref="F11" si="10">D11*E11</f>
+        <v>998.52</v>
+      </c>
+      <c r="G11" s="9">
+        <f>PRODUCT(D11,E11)</f>
+        <v>998.52</v>
+      </c>
+      <c r="H11" s="9">
+        <v>998.52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G12" s="9">
         <f>SUM(G2:G10)</f>
         <v>21642.620000000003</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H12" s="9">
         <f>SUM(H2:H10)</f>
         <v>21643.88</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F12" s="7" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F13" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9">
-        <f>SUM(H11,-G11)</f>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9">
+        <f>SUM(H12,-G12)</f>
         <v>1.2599999999983993</v>
       </c>
     </row>

--- a/sputnik/personal/ee/81ee.xlsx
+++ b/sputnik/personal/ee/81ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>оплачено</t>
-  </si>
-  <si>
-    <t>итого за период</t>
   </si>
   <si>
     <t>остаток</t>
@@ -130,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -154,6 +151,15 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -463,10 +469,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -632,7 +638,7 @@
         <v>7736.27</v>
       </c>
       <c r="G6" s="9">
-        <f>PRODUCT(D6,E6)</f>
+        <f t="shared" ref="G6:G11" si="3">PRODUCT(D6,E6)</f>
         <v>7736.27</v>
       </c>
       <c r="H6" s="9">
@@ -650,7 +656,7 @@
         <v>77486</v>
       </c>
       <c r="D7" s="4">
-        <f t="shared" ref="D7" si="3">C7-C6</f>
+        <f t="shared" ref="D7" si="4">C7-C6</f>
         <v>557</v>
       </c>
       <c r="E7" s="8">
@@ -661,7 +667,7 @@
         <v>2500.9300000000003</v>
       </c>
       <c r="G7" s="9">
-        <f>PRODUCT(D7,E7)</f>
+        <f t="shared" si="3"/>
         <v>2500.9300000000003</v>
       </c>
       <c r="H7" s="9">
@@ -679,7 +685,7 @@
         <v>77786</v>
       </c>
       <c r="D8" s="4">
-        <f t="shared" ref="D8" si="4">C8-C7</f>
+        <f t="shared" ref="D8" si="5">C8-C7</f>
         <v>300</v>
       </c>
       <c r="E8" s="8">
@@ -690,7 +696,7 @@
         <v>1347</v>
       </c>
       <c r="G8" s="9">
-        <f>PRODUCT(D8,E8)</f>
+        <f t="shared" si="3"/>
         <v>1347</v>
       </c>
       <c r="H8" s="9">
@@ -708,18 +714,18 @@
         <v>78102</v>
       </c>
       <c r="D9" s="4">
-        <f t="shared" ref="D9" si="5">C9-C8</f>
+        <f t="shared" ref="D9" si="6">C9-C8</f>
         <v>316</v>
       </c>
       <c r="E9" s="8">
         <v>4.71</v>
       </c>
       <c r="F9" s="6">
-        <f t="shared" ref="F9" si="6">D9*E9</f>
+        <f t="shared" ref="F9" si="7">D9*E9</f>
         <v>1488.36</v>
       </c>
       <c r="G9" s="9">
-        <f>PRODUCT(D9,E9)</f>
+        <f t="shared" si="3"/>
         <v>1488.36</v>
       </c>
       <c r="H9" s="9">
@@ -737,18 +743,18 @@
         <v>78402</v>
       </c>
       <c r="D10" s="4">
-        <f t="shared" ref="D10" si="7">C10-C9</f>
+        <f t="shared" ref="D10" si="8">C10-C9</f>
         <v>300</v>
       </c>
       <c r="E10" s="8">
         <v>4.71</v>
       </c>
       <c r="F10" s="6">
-        <f t="shared" ref="F10" si="8">D10*E10</f>
+        <f t="shared" ref="F10" si="9">D10*E10</f>
         <v>1413</v>
       </c>
       <c r="G10" s="9">
-        <f>PRODUCT(D10,E10)</f>
+        <f t="shared" si="3"/>
         <v>1413</v>
       </c>
       <c r="H10" s="9">
@@ -766,18 +772,18 @@
         <v>78614</v>
       </c>
       <c r="D11" s="4">
-        <f t="shared" ref="D11" si="9">C11-C10</f>
+        <f t="shared" ref="D11" si="10">C11-C10</f>
         <v>212</v>
       </c>
       <c r="E11" s="8">
         <v>4.71</v>
       </c>
       <c r="F11" s="6">
-        <f t="shared" ref="F11" si="10">D11*E11</f>
+        <f t="shared" ref="F11" si="11">D11*E11</f>
         <v>998.52</v>
       </c>
       <c r="G11" s="9">
-        <f>PRODUCT(D11,E11)</f>
+        <f t="shared" si="3"/>
         <v>998.52</v>
       </c>
       <c r="H11" s="9">
@@ -785,26 +791,58 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F12" s="7" t="s">
+      <c r="A12" s="10">
+        <v>44153</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4">
+        <v>79038</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" ref="D12" si="12">C12-C11</f>
+        <v>424</v>
+      </c>
+      <c r="E12" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F12" s="6">
+        <f t="shared" ref="F12" si="13">D12*E12</f>
+        <v>1997.04</v>
+      </c>
+      <c r="G12" s="9">
+        <f t="shared" ref="G12" si="14">PRODUCT(D12,E12)</f>
+        <v>1997.04</v>
+      </c>
+      <c r="H12" s="9">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="9">
+        <f>SUM(G3:G12)</f>
+        <v>24638.180000000004</v>
+      </c>
+      <c r="H13" s="9">
+        <f>SUM(H3:H12)</f>
+        <v>24642.400000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F14" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="9">
-        <f>SUM(G2:G10)</f>
-        <v>21642.620000000003</v>
-      </c>
-      <c r="H12" s="9">
-        <f>SUM(H2:H10)</f>
-        <v>21643.88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F13" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9">
+      <c r="G14" s="9"/>
+      <c r="H14" s="9">
         <f>SUM(H12,-G12)</f>
-        <v>1.2599999999983993</v>
+        <v>2.9600000000000364</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/81ee.xlsx
+++ b/sputnik/personal/ee/81ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -469,10 +469,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -820,27 +820,56 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="6"/>
+      <c r="A13" s="10">
+        <v>44187</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="4">
+        <v>79600</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" ref="D13" si="15">C13-C12</f>
+        <v>562</v>
+      </c>
+      <c r="E13" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" ref="F13" si="16">D13*E13</f>
+        <v>2647.02</v>
+      </c>
       <c r="G13" s="9">
-        <f>SUM(G3:G12)</f>
-        <v>24638.180000000004</v>
+        <f t="shared" ref="G13" si="17">PRODUCT(D13,E13)</f>
+        <v>2647.02</v>
       </c>
       <c r="H13" s="9">
-        <f>SUM(H3:H12)</f>
-        <v>24642.400000000001</v>
+        <v>2647.02</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F14" s="7" t="s">
+      <c r="A14" s="11"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="9">
+        <f>SUM(G3:G13)</f>
+        <v>27285.200000000004</v>
+      </c>
+      <c r="H14" s="9">
+        <f>SUM(H3:H13)</f>
+        <v>27289.420000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F15" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9">
+      <c r="G15" s="9"/>
+      <c r="H15" s="9">
         <f>SUM(H12,-G12)</f>
         <v>2.9600000000000364</v>
       </c>

--- a/sputnik/personal/ee/81ee.xlsx
+++ b/sputnik/personal/ee/81ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -92,12 +92,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -127,7 +133,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -162,6 +168,7 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -469,10 +476,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -553,10 +560,10 @@
         <f t="shared" ref="F3:F8" si="0">D3*E3</f>
         <v>2496.44</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="14">
         <v>2496.44</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="14">
         <v>2497</v>
       </c>
     </row>
@@ -581,10 +588,10 @@
         <f t="shared" si="0"/>
         <v>3457.3</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="14">
         <v>3457.3</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="14">
         <v>3458</v>
       </c>
     </row>
@@ -811,11 +818,11 @@
         <f t="shared" ref="F12" si="13">D12*E12</f>
         <v>1997.04</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="14">
         <f t="shared" ref="G12" si="14">PRODUCT(D12,E12)</f>
         <v>1997.04</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="14">
         <v>2000</v>
       </c>
     </row>
@@ -849,27 +856,114 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="6"/>
+      <c r="A14" s="10">
+        <v>44253</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="4">
+        <v>79900</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="shared" ref="D14" si="18">C14-C13</f>
+        <v>300</v>
+      </c>
+      <c r="E14" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F14" s="6">
+        <f t="shared" ref="F14" si="19">D14*E14</f>
+        <v>1413</v>
+      </c>
       <c r="G14" s="9">
-        <f>SUM(G3:G13)</f>
-        <v>27285.200000000004</v>
+        <f t="shared" ref="G14" si="20">PRODUCT(D14,E14)</f>
+        <v>1413</v>
       </c>
       <c r="H14" s="9">
-        <f>SUM(H3:H13)</f>
-        <v>27289.420000000002</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F15" s="7" t="s">
+      <c r="A15" s="10">
+        <v>44274</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="4">
+        <v>81600</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" ref="D15" si="21">C15-C14</f>
+        <v>1700</v>
+      </c>
+      <c r="E15" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F15" s="6">
+        <f t="shared" ref="F15" si="22">D15*E15</f>
+        <v>8007</v>
+      </c>
+      <c r="G15" s="9">
+        <f t="shared" ref="G15" si="23">PRODUCT(D15,E15)</f>
+        <v>8007</v>
+      </c>
+      <c r="H15" s="9">
+        <v>8007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>44306</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="4">
+        <v>82733</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" ref="D16" si="24">C16-C15</f>
+        <v>1133</v>
+      </c>
+      <c r="E16" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F16" s="6">
+        <f t="shared" ref="F16" si="25">D16*E16</f>
+        <v>5336.43</v>
+      </c>
+      <c r="G16" s="9">
+        <f t="shared" ref="G16" si="26">PRODUCT(D16,E16)</f>
+        <v>5336.43</v>
+      </c>
+      <c r="H16" s="9">
+        <v>5336.43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="9">
+        <f>SUM(G3:G16)</f>
+        <v>42041.630000000005</v>
+      </c>
+      <c r="H17" s="9">
+        <f>SUM(H3:H16)</f>
+        <v>42045.85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F18" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9">
+      <c r="G18" s="9"/>
+      <c r="H18" s="14">
         <f>SUM(H12,-G12)</f>
         <v>2.9600000000000364</v>
       </c>

--- a/sputnik/personal/ee/81ee.xlsx
+++ b/sputnik/personal/ee/81ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -476,10 +476,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -943,27 +943,56 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="6"/>
+      <c r="A17" s="10">
+        <v>44348</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="4">
+        <v>83130</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" ref="D17" si="27">C17-C16</f>
+        <v>397</v>
+      </c>
+      <c r="E17" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F17" s="6">
+        <f t="shared" ref="F17" si="28">D17*E17</f>
+        <v>1869.87</v>
+      </c>
       <c r="G17" s="9">
-        <f>SUM(G3:G16)</f>
-        <v>42041.630000000005</v>
+        <f t="shared" ref="G17" si="29">PRODUCT(D17,E17)</f>
+        <v>1869.87</v>
       </c>
       <c r="H17" s="9">
-        <f>SUM(H3:H16)</f>
-        <v>42045.85</v>
+        <v>1869.87</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F18" s="7" t="s">
+      <c r="A18" s="11"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="9">
+        <f>SUM(G2:G17)</f>
+        <v>43911.500000000007</v>
+      </c>
+      <c r="H18" s="9">
+        <f>SUM(H2:H17)</f>
+        <v>43915.72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F19" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="14">
+      <c r="G19" s="9"/>
+      <c r="H19" s="14">
         <f>SUM(H12,-G12)</f>
         <v>2.9600000000000364</v>
       </c>

--- a/sputnik/personal/ee/81ee.xlsx
+++ b/sputnik/personal/ee/81ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -476,10 +476,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -972,27 +972,56 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="6"/>
+      <c r="A18" s="10">
+        <v>44382</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="4">
+        <v>83432</v>
+      </c>
+      <c r="D18" s="4">
+        <f t="shared" ref="D18" si="30">C18-C17</f>
+        <v>302</v>
+      </c>
+      <c r="E18" s="8">
+        <v>4.96</v>
+      </c>
+      <c r="F18" s="6">
+        <f t="shared" ref="F18" si="31">D18*E18</f>
+        <v>1497.92</v>
+      </c>
       <c r="G18" s="9">
+        <f t="shared" ref="G18" si="32">PRODUCT(D18,E18)</f>
+        <v>1497.92</v>
+      </c>
+      <c r="H18" s="9">
+        <v>1497.92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="9">
         <f>SUM(G2:G17)</f>
         <v>43911.500000000007</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H19" s="9">
         <f>SUM(H2:H17)</f>
         <v>43915.72</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F19" s="7" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="9"/>
-      <c r="H19" s="14">
+      <c r="G20" s="9"/>
+      <c r="H20" s="14">
         <f>SUM(H12,-G12)</f>
         <v>2.9600000000000364</v>
       </c>

--- a/sputnik/personal/ee/81ee.xlsx
+++ b/sputnik/personal/ee/81ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -476,10 +476,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1001,29 +1001,58 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="9">
-        <f>SUM(G2:G17)</f>
-        <v>43911.500000000007</v>
-      </c>
-      <c r="H19" s="9">
-        <f>SUM(H2:H17)</f>
-        <v>43915.72</v>
+      <c r="A19" s="10">
+        <v>44432</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="4">
+        <v>83632</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" ref="D19" si="33">C19-C18</f>
+        <v>200</v>
+      </c>
+      <c r="E19" s="8">
+        <v>4.96</v>
+      </c>
+      <c r="F19" s="6">
+        <f t="shared" ref="F19" si="34">D19*E19</f>
+        <v>992</v>
+      </c>
+      <c r="G19" s="14">
+        <f t="shared" ref="G19" si="35">PRODUCT(D19,E19)</f>
+        <v>992</v>
+      </c>
+      <c r="H19" s="14">
+        <v>414.81</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F20" s="7" t="s">
+      <c r="A20" s="11"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="9">
+        <f>SUM(G2:G19)</f>
+        <v>46401.420000000006</v>
+      </c>
+      <c r="H20" s="9">
+        <f>SUM(H2:H19)</f>
+        <v>45828.45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F21" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="9"/>
-      <c r="H20" s="14">
-        <f>SUM(H12,-G12)</f>
-        <v>2.9600000000000364</v>
+      <c r="G21" s="9"/>
+      <c r="H21" s="14">
+        <f>SUM(H20,-G20)</f>
+        <v>-572.97000000000844</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/81ee.xlsx
+++ b/sputnik/personal/ee/81ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -92,7 +92,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -102,6 +102,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -133,7 +139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -169,6 +175,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -476,10 +483,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1030,29 +1037,87 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="9">
-        <f>SUM(G2:G19)</f>
-        <v>46401.420000000006</v>
-      </c>
-      <c r="H20" s="9">
-        <f>SUM(H2:H19)</f>
-        <v>45828.45</v>
+      <c r="A20" s="10">
+        <v>44517</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="4">
+        <v>84059</v>
+      </c>
+      <c r="D20" s="4">
+        <f t="shared" ref="D20" si="36">C20-C19</f>
+        <v>427</v>
+      </c>
+      <c r="E20" s="8">
+        <v>4.96</v>
+      </c>
+      <c r="F20" s="6">
+        <f t="shared" ref="F20" si="37">D20*E20</f>
+        <v>2117.92</v>
+      </c>
+      <c r="G20" s="14">
+        <f t="shared" ref="G20" si="38">PRODUCT(D20,E20)</f>
+        <v>2117.92</v>
+      </c>
+      <c r="H20" s="14">
+        <v>2117.92</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F21" s="7" t="s">
+      <c r="A21" s="10">
+        <v>44550</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="4">
+        <v>85346</v>
+      </c>
+      <c r="D21" s="4">
+        <f t="shared" ref="D21" si="39">C21-C20</f>
+        <v>1287</v>
+      </c>
+      <c r="E21" s="8">
+        <v>4.96</v>
+      </c>
+      <c r="F21" s="6">
+        <f t="shared" ref="F21" si="40">D21*E21</f>
+        <v>6383.5199999999995</v>
+      </c>
+      <c r="G21" s="15">
+        <f t="shared" ref="G21" si="41">PRODUCT(D21,E21)</f>
+        <v>6383.5199999999995</v>
+      </c>
+      <c r="H21" s="15">
+        <v>6386.75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="15">
+        <f>SUM(G2:G21)</f>
+        <v>54902.86</v>
+      </c>
+      <c r="H22" s="15">
+        <f>SUM(H2:H21)</f>
+        <v>54333.119999999995</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F23" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G21" s="9"/>
-      <c r="H21" s="14">
-        <f>SUM(H20,-G20)</f>
-        <v>-572.97000000000844</v>
+      <c r="G23" s="9"/>
+      <c r="H23" s="14">
+        <f>SUM(H22,-G22)</f>
+        <v>-569.74000000000524</v>
       </c>
     </row>
   </sheetData>
